--- a/PVB Stage Applicatie/App_Data/uploads/KoppelingInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/uploads/KoppelingInvoegen.xlsx
@@ -25,13 +25,13 @@
     <t>Begeleider Email</t>
   </si>
   <si>
-    <t>0236210</t>
-  </si>
-  <si>
     <t>WAG</t>
   </si>
   <si>
-    <t>a.tangelder@bizzdesign.nl</t>
+    <t>a.tangelder@bizzdesign.nd</t>
+  </si>
+  <si>
+    <t>0213120</t>
   </si>
 </sst>
 </file>
@@ -56,8 +56,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF232323"/>
-      <name val="Segoe UI"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -416,7 +416,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,15 +437,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -454,6 +454,6 @@
     <protectedRange sqref="A2:C999" name="Range1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>